--- a/AutomationFramework/resources/MOCK_DATA.xlsx
+++ b/AutomationFramework/resources/MOCK_DATA.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6350"/>
+    <workbookView windowWidth="19200" windowHeight="6800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>first_name</t>
   </si>
@@ -81,26 +82,92 @@
   </si>
   <si>
     <t>amurray4@columbia.edu</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>mobile_number</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>subject1</t>
+  </si>
+  <si>
+    <t>subject2</t>
+  </si>
+  <si>
+    <t>hobbies</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>abhi@gmail.com</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>C:\\Users\\abhishek.dwivedi\\Downloads\\login-bg-2.jpg</t>
+  </si>
+  <si>
+    <t>1212 street</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Panipat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd"/>
   </numFmts>
-  <fonts count="20">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,71 +624,74 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,7 +1013,7 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1019,4 +1089,130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="10.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="10.2727272727273" customWidth="1"/>
+    <col min="3" max="4" width="16.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="15.5454545454545" customWidth="1"/>
+    <col min="6" max="7" width="18.9090909090909" customWidth="1"/>
+    <col min="8" max="8" width="18.9090909090909" style="1" customWidth="1"/>
+    <col min="9" max="11" width="18.9090909090909" customWidth="1"/>
+    <col min="12" max="12" width="50.7272727272727" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="13.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>9998887776</v>
+      </c>
+      <c r="F2">
+        <v>2023</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="7:7">
+      <c r="G8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/AutomationFramework/resources/MOCK_DATA.xlsx
+++ b/AutomationFramework/resources/MOCK_DATA.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>first_name</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>Panipat</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Sharma</t>
   </si>
 </sst>
 </file>
@@ -1096,8 +1102,8 @@
   <sheetPr/>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7"/>
@@ -1208,6 +1214,53 @@
         <v>41</v>
       </c>
     </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>9998887776</v>
+      </c>
+      <c r="F3">
+        <v>2023</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="8" spans="7:7">
       <c r="G8" s="3"/>
     </row>
